--- a/LF/PreTAS/Burkina Faso/bf_lf_pretas_3_resultat_202007.xlsx
+++ b/LF/PreTAS/Burkina Faso/bf_lf_pretas_3_resultat_202007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA27D26-4F2F-4C6A-BED7-0E067F5A1B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4770DFB4-9398-4DA2-90C5-5262792A1BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="173">
   <si>
     <t>form_title</t>
   </si>
@@ -290,9 +290,6 @@
     <t>defis_operationnels_autre</t>
   </si>
   <si>
-    <t>${defis_operationnels}='S'</t>
-  </si>
-  <si>
     <t>select_one operateur</t>
   </si>
   <si>
@@ -533,23 +530,55 @@
     <t>d_end</t>
   </si>
   <si>
-    <t>bf_lf_pretas_3_resultat_202007</t>
-  </si>
-  <si>
     <t>${d_result1} = '1_Positif' or ${d_result1} = '3_Invalide'  or ${d_result2} = '1_Positif' or ${d_result2} = '3_Invalide'</t>
   </si>
   <si>
     <t>.&gt;=1 and .&lt;=2</t>
   </si>
   <si>
-    <t>(BF - Juillet 2020) Pré TAS FL - 3. Résultats</t>
+    <r>
+      <t>${defis_operationnels}='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S_Autre (expliquer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>bf_lf_pretas_3_resultat_202007_v2</t>
+  </si>
+  <si>
+    <t>(BF - Juillet 2020) Pré TAS FL - 3. Formulaire Résultats V2</t>
+  </si>
+  <si>
+    <t>114745.20.12.26</t>
+  </si>
+  <si>
+    <t>fts_lot</t>
+  </si>
+  <si>
+    <t>select_one fts_lot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,13 +630,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -651,7 +692,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -677,6 +718,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1013,21 +1058,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.17578125" customWidth="1"/>
-    <col min="2" max="2" width="20.3515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.703125" customWidth="1"/>
-    <col min="6" max="6" width="24.703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.703125" customWidth="1"/>
-    <col min="9" max="9" width="27.3515625" customWidth="1"/>
-    <col min="11" max="11" width="41.17578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1065,15 +1110,15 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>36</v>
@@ -1082,15 +1127,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1102,15 +1147,15 @@
       <c r="L3" s="8"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1121,15 +1166,15 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>53</v>
@@ -1138,79 +1183,79 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -1221,18 +1266,18 @@
         <v>15</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -1241,12 +1286,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
@@ -1255,7 +1300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
@@ -1269,10 +1314,10 @@
         <v>51</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1289,12 +1334,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>18</v>
@@ -1306,12 +1351,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>19</v>
@@ -1320,7 +1365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -1331,10 +1376,10 @@
         <v>49</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1348,10 +1393,10 @@
         <v>50</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>79</v>
       </c>
@@ -1364,7 +1409,7 @@
       <c r="D18" s="7"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1375,11 +1420,11 @@
         <v>83</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="H19" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="H19" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -1389,28 +1434,26 @@
       <c r="C20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
   </sheetData>
@@ -1421,21 +1464,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="A1:D57"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" style="6" customWidth="1"/>
-    <col min="2" max="2" width="44.703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.17578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.17578125" style="6"/>
+    <col min="2" max="2" width="44.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1446,224 +1489,224 @@
         <v>63</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>57</v>
@@ -1673,9 +1716,9 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>55</v>
@@ -1685,117 +1728,117 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -1806,18 +1849,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
@@ -1828,7 +1871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>69</v>
       </c>
@@ -1839,7 +1882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
@@ -1850,7 +1893,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -1861,7 +1904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>69</v>
       </c>
@@ -1872,7 +1915,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>69</v>
       </c>
@@ -1883,7 +1926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>69</v>
       </c>
@@ -1894,7 +1937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>69</v>
       </c>
@@ -1905,7 +1948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>69</v>
       </c>
@@ -1916,7 +1959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>29</v>
       </c>
@@ -1927,7 +1970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
@@ -1938,7 +1981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>29</v>
       </c>
@@ -1949,215 +1992,226 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="C45" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57"/>
       <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D57">
@@ -2165,6 +2219,7 @@
     <sortCondition ref="B2:B57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2172,18 +2227,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.17578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.17578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2197,12 +2252,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C2">
         <v>20200625</v>
